--- a/data/base_scenario/Services-Group relationship.xlsx
+++ b/data/base_scenario/Services-Group relationship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA20DEB-4E56-4B03-9712-B6E36D921DDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2086A5-8550-4DEE-A291-1913BD121711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="682">
   <si>
     <t>name</t>
   </si>
@@ -2349,9 +2349,9 @@
   </sheetPr>
   <dimension ref="A1:AA718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2423,7 +2423,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2990,7 +2990,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3304,9 +3304,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3359,7 +3357,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -3430,7 +3428,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3467,7 +3465,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3502,7 +3500,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3537,7 +3535,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -3574,7 +3572,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3679,7 +3677,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3716,7 +3714,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3788,7 +3786,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -3907,9 +3905,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="1"/>
-      <c r="K42" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -4027,7 +4023,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -4161,7 +4157,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -4196,7 +4192,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -4231,7 +4227,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -4266,7 +4262,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -4333,7 +4329,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -4370,7 +4366,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -4407,7 +4403,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -4444,7 +4440,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4481,7 +4477,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4552,7 +4548,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4622,7 +4618,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4693,7 +4689,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -4730,7 +4726,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -4767,7 +4763,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -4806,7 +4802,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -4845,7 +4841,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -4884,7 +4880,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -5024,7 +5020,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -5061,7 +5057,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -5098,7 +5094,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -5168,7 +5164,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -5242,7 +5238,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -5279,7 +5275,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -5316,7 +5312,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -5353,7 +5349,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -5390,7 +5386,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -5427,7 +5423,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -5462,7 +5458,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -5567,7 +5563,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -5604,7 +5600,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -5639,7 +5635,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -5674,7 +5670,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -6621,7 +6617,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
@@ -6691,7 +6687,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -6728,7 +6724,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -6800,7 +6796,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -6942,7 +6938,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -6981,7 +6977,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -7090,7 +7086,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -7127,7 +7123,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -7164,7 +7160,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -7199,7 +7195,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -7341,7 +7337,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
@@ -7376,7 +7372,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>146</v>
       </c>
@@ -7411,7 +7407,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>146</v>
       </c>
@@ -7446,7 +7442,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -7481,7 +7477,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -7516,7 +7512,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -7551,7 +7547,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -7586,7 +7582,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
@@ -7621,7 +7617,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -7690,7 +7686,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
@@ -7725,7 +7721,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>146</v>
       </c>
@@ -7760,7 +7756,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>146</v>
       </c>
@@ -7795,7 +7791,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>146</v>
       </c>
@@ -7830,7 +7826,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>146</v>
       </c>
@@ -7865,7 +7861,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>146</v>
       </c>
@@ -7969,7 +7965,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>146</v>
       </c>
@@ -8004,7 +8000,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>146</v>
       </c>
@@ -8043,7 +8039,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>146</v>
       </c>
@@ -8078,7 +8074,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>146</v>
       </c>
@@ -8115,7 +8111,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>146</v>
       </c>
@@ -8150,7 +8146,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>146</v>
       </c>
@@ -8189,7 +8185,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>146</v>
       </c>
@@ -8228,7 +8224,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>146</v>
       </c>
@@ -8264,7 +8260,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>146</v>
       </c>
@@ -8299,7 +8295,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>146</v>
       </c>
@@ -8334,7 +8330,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>146</v>
       </c>
@@ -8369,7 +8365,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>146</v>
       </c>
@@ -8404,7 +8400,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>146</v>
       </c>
@@ -8439,7 +8435,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>146</v>
       </c>
@@ -8474,7 +8470,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>146</v>
       </c>
@@ -8509,7 +8505,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>146</v>
       </c>
@@ -8544,7 +8540,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>146</v>
       </c>
@@ -8579,7 +8575,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>146</v>
       </c>
@@ -8614,7 +8610,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>146</v>
       </c>
@@ -8719,7 +8715,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>146</v>
       </c>
@@ -8756,7 +8752,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>146</v>
       </c>
@@ -8793,7 +8789,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>146</v>
       </c>
@@ -8828,7 +8824,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>146</v>
       </c>
@@ -8900,7 +8896,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>146</v>
       </c>
@@ -8939,7 +8935,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>146</v>
       </c>
@@ -8976,7 +8972,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>146</v>
       </c>
@@ -9013,7 +9009,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>146</v>
       </c>
@@ -9050,7 +9046,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>146</v>
       </c>
@@ -9122,7 +9118,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>146</v>
       </c>
@@ -9157,7 +9153,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>146</v>
       </c>
@@ -9192,7 +9188,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>146</v>
       </c>
@@ -9229,7 +9225,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>146</v>
       </c>
@@ -9334,7 +9330,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>146</v>
       </c>
@@ -9369,7 +9365,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>146</v>
       </c>
@@ -9439,7 +9435,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>146</v>
       </c>
@@ -9509,7 +9505,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>146</v>
       </c>
@@ -9544,7 +9540,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>146</v>
       </c>
@@ -9581,7 +9577,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>146</v>
       </c>
@@ -9618,7 +9614,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>146</v>
       </c>
@@ -9655,7 +9651,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>146</v>
       </c>
@@ -9692,7 +9688,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>146</v>
       </c>
@@ -9729,7 +9725,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>146</v>
       </c>
@@ -10392,7 +10388,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>146</v>
       </c>
@@ -10499,7 +10495,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>146</v>
       </c>
@@ -10534,7 +10530,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>146</v>
       </c>
@@ -10604,7 +10600,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>146</v>
       </c>
@@ -10711,7 +10707,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>146</v>
       </c>
@@ -10816,7 +10812,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>146</v>
       </c>
@@ -10851,7 +10847,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>146</v>
       </c>
@@ -10886,7 +10882,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>146</v>
       </c>
@@ -10991,7 +10987,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -11028,7 +11024,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>240</v>
       </c>
@@ -11065,7 +11061,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>240</v>
       </c>
@@ -11102,7 +11098,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>240</v>
       </c>
@@ -11139,7 +11135,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>240</v>
       </c>
@@ -11176,7 +11172,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>240</v>
       </c>
@@ -11213,7 +11209,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>240</v>
       </c>
@@ -11250,7 +11246,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>240</v>
       </c>
@@ -11287,7 +11283,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>240</v>
       </c>
@@ -11324,7 +11320,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>240</v>
       </c>
@@ -11361,7 +11357,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>240</v>
       </c>
@@ -11398,7 +11394,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>240</v>
       </c>
@@ -11435,7 +11431,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>240</v>
       </c>
@@ -11472,7 +11468,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>240</v>
       </c>
@@ -11509,7 +11505,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>240</v>
       </c>
@@ -11546,7 +11542,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>240</v>
       </c>
@@ -11583,7 +11579,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>240</v>
       </c>
@@ -11620,7 +11616,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>240</v>
       </c>
@@ -11657,7 +11653,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>240</v>
       </c>
@@ -11694,7 +11690,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>240</v>
       </c>
@@ -11731,7 +11727,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>240</v>
       </c>
@@ -11768,7 +11764,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>240</v>
       </c>
@@ -11805,7 +11801,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>240</v>
       </c>
@@ -11842,7 +11838,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>240</v>
       </c>
@@ -11879,7 +11875,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>240</v>
       </c>
@@ -11916,7 +11912,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>240</v>
       </c>
@@ -11953,7 +11949,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>240</v>
       </c>
@@ -11990,7 +11986,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>240</v>
       </c>
@@ -12027,7 +12023,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>240</v>
       </c>
@@ -12064,7 +12060,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>240</v>
       </c>
@@ -12101,7 +12097,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>240</v>
       </c>
@@ -12138,7 +12134,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>240</v>
       </c>
@@ -12175,7 +12171,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>240</v>
       </c>
@@ -12212,7 +12208,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>240</v>
       </c>
@@ -12249,7 +12245,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>240</v>
       </c>
@@ -12286,7 +12282,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>240</v>
       </c>
@@ -12323,7 +12319,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>240</v>
       </c>
@@ -12360,7 +12356,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>240</v>
       </c>
@@ -12397,7 +12393,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>240</v>
       </c>
@@ -12434,7 +12430,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>240</v>
       </c>
@@ -12471,7 +12467,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>240</v>
       </c>
@@ -12508,7 +12504,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>240</v>
       </c>
@@ -12545,7 +12541,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>240</v>
       </c>
@@ -12582,7 +12578,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>240</v>
       </c>
@@ -12619,7 +12615,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>240</v>
       </c>
@@ -12656,7 +12652,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>240</v>
       </c>
@@ -12693,7 +12689,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>240</v>
       </c>
@@ -12730,7 +12726,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>240</v>
       </c>
@@ -12767,7 +12763,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>240</v>
       </c>
@@ -12804,7 +12800,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>240</v>
       </c>
@@ -12841,7 +12837,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>240</v>
       </c>
@@ -12878,7 +12874,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>240</v>
       </c>
@@ -12915,7 +12911,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>240</v>
       </c>
@@ -12952,7 +12948,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>240</v>
       </c>
@@ -12989,7 +12985,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
     </row>
-    <row r="296" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>240</v>
       </c>
@@ -13026,7 +13022,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>240</v>
       </c>
@@ -13063,7 +13059,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
     </row>
-    <row r="298" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>240</v>
       </c>
@@ -13100,7 +13096,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>240</v>
       </c>
@@ -13137,7 +13133,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>240</v>
       </c>
@@ -13174,7 +13170,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>240</v>
       </c>
@@ -13211,7 +13207,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>240</v>
       </c>
@@ -13248,7 +13244,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>240</v>
       </c>
@@ -13285,7 +13281,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>240</v>
       </c>
@@ -13322,7 +13318,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>240</v>
       </c>
@@ -13359,7 +13355,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>240</v>
       </c>
@@ -13396,7 +13392,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>240</v>
       </c>
@@ -13433,7 +13429,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>240</v>
       </c>
@@ -13470,7 +13466,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>240</v>
       </c>
@@ -13507,7 +13503,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>240</v>
       </c>
@@ -13544,7 +13540,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>240</v>
       </c>
@@ -13581,7 +13577,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>240</v>
       </c>
@@ -13618,7 +13614,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>240</v>
       </c>
@@ -13655,7 +13651,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>240</v>
       </c>
@@ -13692,7 +13688,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>240</v>
       </c>
@@ -13729,7 +13725,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>240</v>
       </c>
@@ -13766,7 +13762,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>240</v>
       </c>
@@ -13803,7 +13799,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>240</v>
       </c>
@@ -13840,7 +13836,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>240</v>
       </c>
@@ -13877,7 +13873,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>240</v>
       </c>
@@ -13914,7 +13910,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>240</v>
       </c>
@@ -13951,7 +13947,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>240</v>
       </c>
@@ -13988,7 +13984,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>240</v>
       </c>
@@ -14025,7 +14021,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>240</v>
       </c>
@@ -14062,7 +14058,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>240</v>
       </c>
@@ -14099,7 +14095,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>240</v>
       </c>
@@ -14136,7 +14132,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>240</v>
       </c>
@@ -14173,7 +14169,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>240</v>
       </c>
@@ -14210,7 +14206,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>240</v>
       </c>
@@ -14247,7 +14243,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>240</v>
       </c>
@@ -14284,7 +14280,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>240</v>
       </c>
@@ -14321,7 +14317,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>240</v>
       </c>
@@ -14358,7 +14354,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>240</v>
       </c>
@@ -14395,7 +14391,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>240</v>
       </c>
@@ -14432,7 +14428,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>240</v>
       </c>
@@ -14469,7 +14465,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>240</v>
       </c>
@@ -14506,7 +14502,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>240</v>
       </c>
@@ -14543,7 +14539,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>240</v>
       </c>
@@ -14580,7 +14576,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>240</v>
       </c>
@@ -14617,7 +14613,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>240</v>
       </c>
@@ -14654,7 +14650,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>240</v>
       </c>
@@ -14691,7 +14687,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>341</v>
       </c>
@@ -14726,7 +14722,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
@@ -14761,7 +14757,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>341</v>
       </c>
@@ -14796,7 +14792,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>341</v>
       </c>
@@ -14831,7 +14827,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>341</v>
       </c>
@@ -14866,7 +14862,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>341</v>
       </c>
@@ -14901,7 +14897,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>341</v>
       </c>
@@ -14936,7 +14932,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>341</v>
       </c>
@@ -14971,7 +14967,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>341</v>
       </c>
@@ -15006,7 +15002,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>341</v>
       </c>
@@ -15041,7 +15037,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>341</v>
       </c>
@@ -15076,7 +15072,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>341</v>
       </c>
@@ -15111,7 +15107,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>341</v>
       </c>
@@ -15146,7 +15142,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>341</v>
       </c>
@@ -15181,7 +15177,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>341</v>
       </c>
@@ -15216,7 +15212,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>341</v>
       </c>
@@ -15251,7 +15247,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>341</v>
       </c>
@@ -15286,7 +15282,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>341</v>
       </c>
@@ -15321,7 +15317,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>341</v>
       </c>
@@ -15356,7 +15352,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>341</v>
       </c>
@@ -15391,7 +15387,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>341</v>
       </c>
@@ -15426,7 +15422,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>341</v>
       </c>
@@ -15461,7 +15457,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>341</v>
       </c>
@@ -15496,7 +15492,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>341</v>
       </c>
@@ -15531,7 +15527,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>341</v>
       </c>
@@ -15566,7 +15562,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>341</v>
       </c>
@@ -15601,7 +15597,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>341</v>
       </c>
@@ -15636,7 +15632,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>341</v>
       </c>
@@ -15671,7 +15667,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>341</v>
       </c>
@@ -15706,7 +15702,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>341</v>
       </c>
@@ -15741,7 +15737,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>341</v>
       </c>
@@ -15776,7 +15772,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>341</v>
       </c>
@@ -15811,7 +15807,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>341</v>
       </c>
@@ -15846,7 +15842,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>341</v>
       </c>
@@ -15881,7 +15877,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>341</v>
       </c>
@@ -15916,7 +15912,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>341</v>
       </c>
@@ -15951,7 +15947,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>341</v>
       </c>
@@ -15986,7 +15982,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>341</v>
       </c>
@@ -16021,7 +16017,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>341</v>
       </c>
@@ -16056,7 +16052,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>341</v>
       </c>
@@ -16091,7 +16087,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>341</v>
       </c>
@@ -16126,7 +16122,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>341</v>
       </c>
@@ -16161,7 +16157,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>341</v>
       </c>
@@ -16196,7 +16192,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>341</v>
       </c>
@@ -16231,7 +16227,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>341</v>
       </c>
@@ -16266,7 +16262,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>341</v>
       </c>
@@ -16301,7 +16297,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>341</v>
       </c>
@@ -16336,7 +16332,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>341</v>
       </c>
@@ -16371,7 +16367,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>341</v>
       </c>
@@ -16406,7 +16402,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>341</v>
       </c>
@@ -16441,7 +16437,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>341</v>
       </c>
@@ -16476,7 +16472,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>341</v>
       </c>
@@ -16511,7 +16507,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>341</v>
       </c>
@@ -16546,7 +16542,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>341</v>
       </c>
@@ -16581,7 +16577,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>341</v>
       </c>
@@ -16616,7 +16612,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>341</v>
       </c>
@@ -16651,7 +16647,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>341</v>
       </c>
@@ -16686,7 +16682,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>341</v>
       </c>
@@ -16721,7 +16717,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>341</v>
       </c>
@@ -16756,7 +16752,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>341</v>
       </c>
@@ -16791,7 +16787,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>341</v>
       </c>
@@ -16826,7 +16822,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>341</v>
       </c>
@@ -16861,7 +16857,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>392</v>
       </c>
@@ -16898,7 +16894,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>392</v>
       </c>
@@ -16935,7 +16931,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>392</v>
       </c>
@@ -16970,7 +16966,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>392</v>
       </c>
@@ -17005,7 +17001,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>392</v>
       </c>
@@ -17040,7 +17036,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>392</v>
       </c>
@@ -17075,7 +17071,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>392</v>
       </c>
@@ -17112,7 +17108,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>392</v>
       </c>
@@ -17149,7 +17145,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>392</v>
       </c>
@@ -17184,7 +17180,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>392</v>
       </c>
@@ -17221,7 +17217,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>392</v>
       </c>
@@ -17256,7 +17252,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>392</v>
       </c>
@@ -17291,7 +17287,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>392</v>
       </c>
@@ -17328,7 +17324,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>392</v>
       </c>
@@ -17365,7 +17361,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>392</v>
       </c>
@@ -17400,7 +17396,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>392</v>
       </c>
@@ -17435,7 +17431,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>392</v>
       </c>
@@ -17472,7 +17468,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>392</v>
       </c>
@@ -17509,7 +17505,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>392</v>
       </c>
@@ -17544,7 +17540,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>392</v>
       </c>
@@ -17581,7 +17577,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>392</v>
       </c>
@@ -17616,7 +17612,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>392</v>
       </c>
@@ -17651,7 +17647,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>392</v>
       </c>
@@ -17686,7 +17682,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>392</v>
       </c>
@@ -17721,7 +17717,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>392</v>
       </c>
@@ -17756,7 +17752,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>392</v>
       </c>
@@ -17791,7 +17787,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>392</v>
       </c>
@@ -17828,7 +17824,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>392</v>
       </c>
@@ -17865,7 +17861,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>392</v>
       </c>
@@ -17902,7 +17898,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>392</v>
       </c>
@@ -17939,7 +17935,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>392</v>
       </c>
@@ -17976,7 +17972,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>392</v>
       </c>
@@ -18011,7 +18007,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>392</v>
       </c>
@@ -18048,7 +18044,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>424</v>
       </c>
@@ -18083,7 +18079,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>424</v>
       </c>
@@ -18258,7 +18254,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>424</v>
       </c>
@@ -18853,7 +18849,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>424</v>
       </c>
@@ -19063,7 +19059,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>424</v>
       </c>
@@ -19413,7 +19409,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>169</v>
       </c>
@@ -19448,7 +19444,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>169</v>
       </c>
@@ -19483,7 +19479,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>169</v>
       </c>
@@ -19518,7 +19514,7 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>169</v>
       </c>
@@ -19553,7 +19549,7 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
     </row>
-    <row r="480" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>169</v>
       </c>
@@ -19588,7 +19584,7 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
     </row>
-    <row r="481" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>169</v>
       </c>
@@ -19623,7 +19619,7 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
     </row>
-    <row r="482" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>169</v>
       </c>
@@ -19658,7 +19654,7 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
     </row>
-    <row r="483" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>169</v>
       </c>
@@ -19693,7 +19689,7 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>169</v>
       </c>
@@ -19728,7 +19724,7 @@
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
     </row>
-    <row r="485" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>169</v>
       </c>
@@ -19763,7 +19759,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
     </row>
-    <row r="486" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>169</v>
       </c>
@@ -19798,7 +19794,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
     </row>
-    <row r="487" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>169</v>
       </c>
@@ -19833,7 +19829,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
     </row>
-    <row r="488" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>169</v>
       </c>
@@ -19868,7 +19864,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
     </row>
-    <row r="489" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>169</v>
       </c>
@@ -19903,7 +19899,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
     </row>
-    <row r="490" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>169</v>
       </c>
@@ -19938,7 +19934,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
     </row>
-    <row r="491" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>169</v>
       </c>
@@ -19973,7 +19969,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
     </row>
-    <row r="492" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>169</v>
       </c>
@@ -20008,7 +20004,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
     </row>
-    <row r="493" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>169</v>
       </c>
@@ -20043,7 +20039,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
     </row>
-    <row r="494" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>169</v>
       </c>
@@ -20078,7 +20074,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
     </row>
-    <row r="495" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>169</v>
       </c>
@@ -20113,7 +20109,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
     </row>
-    <row r="496" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>169</v>
       </c>
@@ -20148,7 +20144,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
     </row>
-    <row r="497" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>169</v>
       </c>
@@ -20183,7 +20179,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
     </row>
-    <row r="498" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>169</v>
       </c>
@@ -20218,7 +20214,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
     </row>
-    <row r="499" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>169</v>
       </c>
@@ -20253,7 +20249,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
     </row>
-    <row r="500" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>169</v>
       </c>
@@ -20288,7 +20284,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
     </row>
-    <row r="501" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>169</v>
       </c>
@@ -20323,7 +20319,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
     </row>
-    <row r="502" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>169</v>
       </c>
@@ -20358,7 +20354,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
     </row>
-    <row r="503" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>169</v>
       </c>
@@ -20393,7 +20389,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
     </row>
-    <row r="504" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>169</v>
       </c>
@@ -20428,7 +20424,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
     </row>
-    <row r="505" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>169</v>
       </c>
@@ -20463,7 +20459,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
     </row>
-    <row r="506" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>169</v>
       </c>
@@ -20498,7 +20494,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
     </row>
-    <row r="507" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>169</v>
       </c>
@@ -20533,7 +20529,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
     </row>
-    <row r="508" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>169</v>
       </c>
@@ -20568,7 +20564,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
     </row>
-    <row r="509" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>169</v>
       </c>
@@ -20603,7 +20599,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
     </row>
-    <row r="510" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>169</v>
       </c>
@@ -20638,7 +20634,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
     </row>
-    <row r="511" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>169</v>
       </c>
@@ -20673,7 +20669,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
     </row>
-    <row r="512" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>169</v>
       </c>
@@ -20708,7 +20704,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
     </row>
-    <row r="513" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>169</v>
       </c>
@@ -20743,7 +20739,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
     </row>
-    <row r="514" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>169</v>
       </c>
@@ -20778,7 +20774,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
     </row>
-    <row r="515" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>169</v>
       </c>
@@ -20813,7 +20809,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
     </row>
-    <row r="516" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>169</v>
       </c>
@@ -20848,7 +20844,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
     </row>
-    <row r="517" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>169</v>
       </c>
@@ -20883,7 +20879,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
     </row>
-    <row r="518" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>169</v>
       </c>
@@ -20918,7 +20914,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
     </row>
-    <row r="519" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>169</v>
       </c>
@@ -20953,7 +20949,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
     </row>
-    <row r="520" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>169</v>
       </c>
@@ -20988,7 +20984,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
     </row>
-    <row r="521" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>169</v>
       </c>
@@ -21023,7 +21019,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
     </row>
-    <row r="522" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>169</v>
       </c>
@@ -21058,7 +21054,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
     </row>
-    <row r="523" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>169</v>
       </c>
@@ -21093,7 +21089,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
     </row>
-    <row r="524" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>169</v>
       </c>
@@ -21128,7 +21124,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
     </row>
-    <row r="525" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>169</v>
       </c>
@@ -21163,7 +21159,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
     </row>
-    <row r="526" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>169</v>
       </c>
@@ -21198,7 +21194,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
     </row>
-    <row r="527" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>169</v>
       </c>
@@ -21233,7 +21229,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
     </row>
-    <row r="528" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>169</v>
       </c>
@@ -21268,7 +21264,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
     </row>
-    <row r="529" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>169</v>
       </c>
@@ -21303,7 +21299,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
     </row>
-    <row r="530" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>169</v>
       </c>
@@ -21338,7 +21334,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
     </row>
-    <row r="531" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>515</v>
       </c>
@@ -21373,7 +21369,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
     </row>
-    <row r="532" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>515</v>
       </c>
@@ -21408,7 +21404,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
     </row>
-    <row r="533" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>515</v>
       </c>
@@ -21513,7 +21509,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
     </row>
-    <row r="536" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>521</v>
       </c>
@@ -21548,7 +21544,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
     </row>
-    <row r="537" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>521</v>
       </c>
@@ -21583,7 +21579,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
     </row>
-    <row r="538" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>521</v>
       </c>
@@ -21618,7 +21614,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
     </row>
-    <row r="539" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>521</v>
       </c>
@@ -21653,7 +21649,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
     </row>
-    <row r="540" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>521</v>
       </c>
@@ -21688,7 +21684,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
     </row>
-    <row r="541" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>525</v>
       </c>
@@ -21703,7 +21699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>525</v>
       </c>
@@ -21718,7 +21714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>525</v>
       </c>
@@ -21733,7 +21729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>525</v>
       </c>
@@ -21748,7 +21744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>525</v>
       </c>
@@ -21763,7 +21759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>525</v>
       </c>
@@ -21778,7 +21774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>525</v>
       </c>
@@ -21793,7 +21789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>525</v>
       </c>
@@ -21808,7 +21804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>525</v>
       </c>
@@ -21823,7 +21819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>525</v>
       </c>
@@ -21838,7 +21834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>525</v>
       </c>
@@ -21853,7 +21849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>525</v>
       </c>
@@ -21868,7 +21864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>525</v>
       </c>
@@ -21883,7 +21879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>525</v>
       </c>
@@ -21898,7 +21894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>525</v>
       </c>
@@ -21913,7 +21909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>525</v>
       </c>
@@ -21928,7 +21924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>525</v>
       </c>
@@ -21943,7 +21939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>525</v>
       </c>
@@ -21958,7 +21954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>525</v>
       </c>
@@ -21973,7 +21969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>525</v>
       </c>
@@ -21988,7 +21984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>525</v>
       </c>
@@ -22003,7 +21999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>525</v>
       </c>
@@ -22018,7 +22014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>525</v>
       </c>
@@ -22033,7 +22029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>525</v>
       </c>
@@ -22048,7 +22044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>525</v>
       </c>
@@ -22063,7 +22059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>525</v>
       </c>
@@ -22078,7 +22074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>525</v>
       </c>
@@ -22093,7 +22089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>525</v>
       </c>
@@ -22108,7 +22104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>525</v>
       </c>
@@ -22123,7 +22119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>525</v>
       </c>
@@ -22138,7 +22134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>525</v>
       </c>
@@ -22153,7 +22149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>525</v>
       </c>
@@ -22168,7 +22164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>525</v>
       </c>
@@ -22183,7 +22179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>525</v>
       </c>
@@ -22198,7 +22194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>525</v>
       </c>
@@ -22213,7 +22209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>525</v>
       </c>
@@ -22228,7 +22224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>525</v>
       </c>
@@ -22243,7 +22239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>525</v>
       </c>
@@ -22258,7 +22254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>525</v>
       </c>
@@ -22273,7 +22269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>525</v>
       </c>
@@ -22288,7 +22284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>525</v>
       </c>
@@ -22303,7 +22299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>525</v>
       </c>
@@ -22318,7 +22314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>525</v>
       </c>
@@ -22333,7 +22329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>525</v>
       </c>
@@ -22348,7 +22344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>525</v>
       </c>
@@ -22363,7 +22359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>525</v>
       </c>
@@ -22378,7 +22374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>525</v>
       </c>
@@ -22393,7 +22389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>525</v>
       </c>
@@ -22408,7 +22404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>525</v>
       </c>
@@ -22423,7 +22419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>525</v>
       </c>
@@ -22438,7 +22434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>525</v>
       </c>
@@ -22453,7 +22449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>525</v>
       </c>
@@ -22468,7 +22464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>525</v>
       </c>
@@ -22483,7 +22479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>525</v>
       </c>
@@ -22498,7 +22494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>525</v>
       </c>
@@ -22513,7 +22509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>525</v>
       </c>
@@ -22528,7 +22524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>525</v>
       </c>
@@ -22543,7 +22539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>525</v>
       </c>
@@ -22558,7 +22554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>525</v>
       </c>
@@ -22573,7 +22569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>525</v>
       </c>
@@ -22588,7 +22584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>525</v>
       </c>
@@ -22603,7 +22599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>525</v>
       </c>
@@ -22618,7 +22614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>525</v>
       </c>
@@ -22633,7 +22629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>525</v>
       </c>
@@ -22648,7 +22644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>525</v>
       </c>
@@ -22663,7 +22659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>525</v>
       </c>
@@ -22678,7 +22674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>525</v>
       </c>
@@ -22693,7 +22689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>525</v>
       </c>
@@ -22708,7 +22704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>525</v>
       </c>
@@ -22723,7 +22719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>525</v>
       </c>
@@ -22738,7 +22734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>525</v>
       </c>
@@ -22753,7 +22749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>525</v>
       </c>
@@ -22768,7 +22764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>525</v>
       </c>
@@ -22783,7 +22779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>525</v>
       </c>
@@ -22798,7 +22794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>525</v>
       </c>
@@ -22813,7 +22809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>525</v>
       </c>
@@ -22828,7 +22824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>525</v>
       </c>
@@ -22843,7 +22839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>525</v>
       </c>
@@ -22858,7 +22854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>525</v>
       </c>
@@ -22873,7 +22869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>525</v>
       </c>
@@ -22888,7 +22884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>525</v>
       </c>
@@ -22903,7 +22899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>525</v>
       </c>
@@ -22918,7 +22914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>525</v>
       </c>
@@ -22933,7 +22929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>525</v>
       </c>
@@ -22948,7 +22944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>525</v>
       </c>
@@ -22963,7 +22959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>525</v>
       </c>
@@ -22978,7 +22974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>525</v>
       </c>
@@ -22993,7 +22989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>525</v>
       </c>
@@ -23008,7 +23004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>525</v>
       </c>
@@ -23023,7 +23019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>525</v>
       </c>
@@ -23038,7 +23034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>525</v>
       </c>
@@ -23053,7 +23049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>525</v>
       </c>
@@ -23068,7 +23064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>525</v>
       </c>
@@ -23083,7 +23079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>525</v>
       </c>
@@ -23098,7 +23094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>525</v>
       </c>
@@ -23113,7 +23109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>525</v>
       </c>
@@ -23128,7 +23124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>525</v>
       </c>
@@ -23143,7 +23139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>525</v>
       </c>
@@ -23158,7 +23154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>525</v>
       </c>
@@ -23173,7 +23169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>525</v>
       </c>
@@ -23188,7 +23184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>525</v>
       </c>
@@ -23203,7 +23199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>525</v>
       </c>
@@ -23218,7 +23214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>525</v>
       </c>
@@ -23233,7 +23229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>525</v>
       </c>
@@ -23248,7 +23244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>525</v>
       </c>
@@ -23263,7 +23259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>525</v>
       </c>
@@ -23278,7 +23274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>525</v>
       </c>
@@ -23293,7 +23289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>525</v>
       </c>
@@ -23308,7 +23304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>525</v>
       </c>
@@ -23323,7 +23319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>525</v>
       </c>
@@ -23338,7 +23334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>525</v>
       </c>
@@ -23353,7 +23349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>525</v>
       </c>
@@ -23368,7 +23364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>525</v>
       </c>
@@ -23383,7 +23379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>525</v>
       </c>
@@ -23398,7 +23394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>525</v>
       </c>
@@ -23424,7 +23420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>525</v>
       </c>
@@ -23439,7 +23435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>525</v>
       </c>
@@ -23454,7 +23450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>525</v>
       </c>
@@ -23469,7 +23465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>525</v>
       </c>
@@ -23484,7 +23480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>525</v>
       </c>
@@ -23499,7 +23495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>525</v>
       </c>
@@ -23514,7 +23510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>525</v>
       </c>
@@ -23529,7 +23525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>525</v>
       </c>
@@ -23544,7 +23540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>525</v>
       </c>
@@ -23559,7 +23555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>525</v>
       </c>
@@ -23574,7 +23570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>525</v>
       </c>
@@ -23589,7 +23585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>525</v>
       </c>
@@ -23604,7 +23600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>525</v>
       </c>
@@ -23619,7 +23615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>525</v>
       </c>
@@ -23634,7 +23630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>525</v>
       </c>
@@ -23649,7 +23645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>525</v>
       </c>
@@ -23664,7 +23660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>525</v>
       </c>
@@ -23679,7 +23675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>525</v>
       </c>
@@ -23694,7 +23690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>525</v>
       </c>
@@ -23709,7 +23705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>525</v>
       </c>
@@ -23724,7 +23720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>525</v>
       </c>
@@ -23739,7 +23735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>525</v>
       </c>
@@ -23754,7 +23750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>525</v>
       </c>
@@ -23769,7 +23765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>525</v>
       </c>
@@ -23784,7 +23780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>525</v>
       </c>
@@ -23799,7 +23795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>525</v>
       </c>
@@ -23814,7 +23810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>525</v>
       </c>
@@ -23829,7 +23825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>525</v>
       </c>
@@ -23844,7 +23840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>525</v>
       </c>
@@ -23859,7 +23855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>525</v>
       </c>
@@ -23874,7 +23870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>525</v>
       </c>
@@ -23889,7 +23885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>525</v>
       </c>
@@ -23904,7 +23900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>525</v>
       </c>
@@ -23919,7 +23915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>525</v>
       </c>
@@ -23934,7 +23930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>525</v>
       </c>
@@ -23949,7 +23945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>525</v>
       </c>
@@ -23964,7 +23960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>525</v>
       </c>
@@ -23979,7 +23975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>525</v>
       </c>
@@ -23994,7 +23990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>525</v>
       </c>
@@ -24009,7 +24005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>525</v>
       </c>
@@ -24024,7 +24020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>525</v>
       </c>
@@ -24039,7 +24035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>525</v>
       </c>
@@ -24054,7 +24050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>525</v>
       </c>
@@ -24069,7 +24065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>525</v>
       </c>
@@ -24084,7 +24080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>525</v>
       </c>
@@ -24099,7 +24095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>525</v>
       </c>
@@ -24114,7 +24110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>525</v>
       </c>
@@ -24129,7 +24125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>525</v>
       </c>
@@ -24144,7 +24140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>525</v>
       </c>
@@ -24159,7 +24155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>525</v>
       </c>
@@ -24174,7 +24170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>525</v>
       </c>
@@ -24189,7 +24185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>525</v>
       </c>
@@ -24204,7 +24200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>525</v>
       </c>
@@ -24219,7 +24215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>525</v>
       </c>
@@ -24234,7 +24230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>525</v>
       </c>
@@ -24249,7 +24245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>525</v>
       </c>
@@ -24264,7 +24260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>525</v>
       </c>
@@ -24279,7 +24275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>525</v>
       </c>
@@ -24294,7 +24290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>525</v>
       </c>
@@ -24309,7 +24305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>525</v>
       </c>
@@ -24324,7 +24320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>525</v>
       </c>
@@ -24355,6 +24351,11 @@
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/base_scenario/Services-Group relationship.xlsx
+++ b/data/base_scenario/Services-Group relationship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2086A5-8550-4DEE-A291-1913BD121711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301A2BD9-7D58-4B1D-B093-FABFE2F51A65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2349,9 +2349,9 @@
   </sheetPr>
   <dimension ref="A1:AA718"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2423,7 +2423,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2990,7 +2990,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -4227,7 +4227,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4689,7 +4689,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -5600,7 +5600,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -6617,7 +6617,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
@@ -6687,7 +6687,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -6796,7 +6796,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -6977,7 +6977,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -7086,7 +7086,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>146</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>146</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
@@ -7477,7 +7477,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -7547,7 +7547,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -7582,7 +7582,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
@@ -7617,7 +7617,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
@@ -7721,7 +7721,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>146</v>
       </c>
@@ -7756,7 +7756,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>146</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>146</v>
       </c>
@@ -7826,7 +7826,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>146</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>146</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>146</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>146</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>146</v>
       </c>
@@ -8074,7 +8074,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>146</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>146</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>146</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>146</v>
       </c>
@@ -8224,7 +8224,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>146</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>146</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>146</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>146</v>
       </c>
@@ -8365,7 +8365,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>146</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>146</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>146</v>
       </c>
@@ -8470,7 +8470,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>146</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>146</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>146</v>
       </c>
@@ -8575,7 +8575,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>146</v>
       </c>
@@ -8610,7 +8610,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>146</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>146</v>
       </c>
@@ -8752,7 +8752,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>146</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>146</v>
       </c>
@@ -8824,7 +8824,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>146</v>
       </c>
@@ -8896,7 +8896,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>146</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>146</v>
       </c>
@@ -8972,7 +8972,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>146</v>
       </c>
@@ -9009,7 +9009,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>146</v>
       </c>
@@ -9046,7 +9046,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>146</v>
       </c>
@@ -9118,7 +9118,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>146</v>
       </c>
@@ -9153,7 +9153,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>146</v>
       </c>
@@ -9188,7 +9188,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>146</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>146</v>
       </c>
@@ -9330,7 +9330,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>146</v>
       </c>
@@ -9365,7 +9365,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>146</v>
       </c>
@@ -9435,7 +9435,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>146</v>
       </c>
@@ -9505,7 +9505,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>146</v>
       </c>
@@ -9540,7 +9540,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>146</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>146</v>
       </c>
@@ -9614,7 +9614,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>146</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>146</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>146</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>146</v>
       </c>
@@ -10388,7 +10388,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>146</v>
       </c>
@@ -10495,7 +10495,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>146</v>
       </c>
@@ -10530,7 +10530,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>146</v>
       </c>
@@ -10600,7 +10600,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>146</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>146</v>
       </c>
@@ -10812,7 +10812,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>146</v>
       </c>
@@ -10847,7 +10847,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>146</v>
       </c>
@@ -10882,7 +10882,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>146</v>
       </c>
@@ -10987,7 +10987,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -11024,7 +11024,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>240</v>
       </c>
@@ -11061,7 +11061,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>240</v>
       </c>
@@ -11098,7 +11098,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>240</v>
       </c>
@@ -11135,7 +11135,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>240</v>
       </c>
@@ -11172,7 +11172,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>240</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>240</v>
       </c>
@@ -11246,7 +11246,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>240</v>
       </c>
@@ -11283,7 +11283,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>240</v>
       </c>
@@ -11320,7 +11320,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>240</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>240</v>
       </c>
@@ -11394,7 +11394,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>240</v>
       </c>
@@ -11431,7 +11431,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>240</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>240</v>
       </c>
@@ -11505,7 +11505,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>240</v>
       </c>
@@ -11542,7 +11542,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>240</v>
       </c>
@@ -11579,7 +11579,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>240</v>
       </c>
@@ -11616,7 +11616,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>240</v>
       </c>
@@ -11653,7 +11653,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>240</v>
       </c>
@@ -11690,7 +11690,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>240</v>
       </c>
@@ -11727,7 +11727,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>240</v>
       </c>
@@ -11764,7 +11764,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>240</v>
       </c>
@@ -11801,7 +11801,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>240</v>
       </c>
@@ -11838,7 +11838,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>240</v>
       </c>
@@ -11875,7 +11875,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>240</v>
       </c>
@@ -11912,7 +11912,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>240</v>
       </c>
@@ -11949,7 +11949,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>240</v>
       </c>
@@ -11986,7 +11986,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>240</v>
       </c>
@@ -12023,7 +12023,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>240</v>
       </c>
@@ -12060,7 +12060,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>240</v>
       </c>
@@ -12097,7 +12097,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>240</v>
       </c>
@@ -12134,7 +12134,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>240</v>
       </c>
@@ -12171,7 +12171,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>240</v>
       </c>
@@ -12208,7 +12208,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>240</v>
       </c>
@@ -12245,7 +12245,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>240</v>
       </c>
@@ -12282,7 +12282,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>240</v>
       </c>
@@ -12319,7 +12319,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>240</v>
       </c>
@@ -12356,7 +12356,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>240</v>
       </c>
@@ -12393,7 +12393,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>240</v>
       </c>
@@ -12430,7 +12430,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>240</v>
       </c>
@@ -12467,7 +12467,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>240</v>
       </c>
@@ -12504,7 +12504,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>240</v>
       </c>
@@ -12541,7 +12541,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>240</v>
       </c>
@@ -12578,7 +12578,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>240</v>
       </c>
@@ -12615,7 +12615,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>240</v>
       </c>
@@ -12652,7 +12652,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>240</v>
       </c>
@@ -12689,7 +12689,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>240</v>
       </c>
@@ -12726,7 +12726,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>240</v>
       </c>
@@ -12763,7 +12763,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>240</v>
       </c>
@@ -12800,7 +12800,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>240</v>
       </c>
@@ -12837,7 +12837,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>240</v>
       </c>
@@ -12874,7 +12874,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>240</v>
       </c>
@@ -12911,7 +12911,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>240</v>
       </c>
@@ -12948,7 +12948,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>240</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
     </row>
-    <row r="296" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>240</v>
       </c>
@@ -13022,7 +13022,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>240</v>
       </c>
@@ -13059,7 +13059,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
     </row>
-    <row r="298" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>240</v>
       </c>
@@ -13096,7 +13096,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>240</v>
       </c>
@@ -13133,7 +13133,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>240</v>
       </c>
@@ -13170,7 +13170,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>240</v>
       </c>
@@ -13207,7 +13207,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>240</v>
       </c>
@@ -13244,7 +13244,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>240</v>
       </c>
@@ -13281,7 +13281,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>240</v>
       </c>
@@ -13318,7 +13318,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>240</v>
       </c>
@@ -13355,7 +13355,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>240</v>
       </c>
@@ -13392,7 +13392,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>240</v>
       </c>
@@ -13429,7 +13429,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>240</v>
       </c>
@@ -13466,7 +13466,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>240</v>
       </c>
@@ -13503,7 +13503,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>240</v>
       </c>
@@ -13540,7 +13540,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>240</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>240</v>
       </c>
@@ -13614,7 +13614,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>240</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>240</v>
       </c>
@@ -13688,7 +13688,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>240</v>
       </c>
@@ -13725,7 +13725,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>240</v>
       </c>
@@ -13762,7 +13762,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>240</v>
       </c>
@@ -13799,7 +13799,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>240</v>
       </c>
@@ -13836,7 +13836,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>240</v>
       </c>
@@ -13873,7 +13873,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>240</v>
       </c>
@@ -13910,7 +13910,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>240</v>
       </c>
@@ -13947,7 +13947,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>240</v>
       </c>
@@ -13984,7 +13984,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>240</v>
       </c>
@@ -14021,7 +14021,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>240</v>
       </c>
@@ -14058,7 +14058,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>240</v>
       </c>
@@ -14095,7 +14095,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>240</v>
       </c>
@@ -14132,7 +14132,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>240</v>
       </c>
@@ -14169,7 +14169,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>240</v>
       </c>
@@ -14206,7 +14206,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>240</v>
       </c>
@@ -14243,7 +14243,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>240</v>
       </c>
@@ -14280,7 +14280,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>240</v>
       </c>
@@ -14317,7 +14317,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>240</v>
       </c>
@@ -14354,7 +14354,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>240</v>
       </c>
@@ -14391,7 +14391,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>240</v>
       </c>
@@ -14428,7 +14428,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>240</v>
       </c>
@@ -14465,7 +14465,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>240</v>
       </c>
@@ -14502,7 +14502,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>240</v>
       </c>
@@ -14539,7 +14539,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>240</v>
       </c>
@@ -14576,7 +14576,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>240</v>
       </c>
@@ -14613,7 +14613,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>240</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>240</v>
       </c>
@@ -14687,7 +14687,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>341</v>
       </c>
@@ -14722,7 +14722,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
@@ -14757,7 +14757,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>341</v>
       </c>
@@ -14792,7 +14792,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>341</v>
       </c>
@@ -14827,7 +14827,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>341</v>
       </c>
@@ -14862,7 +14862,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>341</v>
       </c>
@@ -14897,7 +14897,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>341</v>
       </c>
@@ -14932,7 +14932,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>341</v>
       </c>
@@ -14967,7 +14967,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>341</v>
       </c>
@@ -15002,7 +15002,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>341</v>
       </c>
@@ -15037,7 +15037,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>341</v>
       </c>
@@ -15072,7 +15072,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>341</v>
       </c>
@@ -15107,7 +15107,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>341</v>
       </c>
@@ -15142,7 +15142,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>341</v>
       </c>
@@ -15177,7 +15177,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>341</v>
       </c>
@@ -15212,7 +15212,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>341</v>
       </c>
@@ -15247,7 +15247,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>341</v>
       </c>
@@ -15282,7 +15282,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>341</v>
       </c>
@@ -15317,7 +15317,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>341</v>
       </c>
@@ -15352,7 +15352,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>341</v>
       </c>
@@ -15387,7 +15387,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>341</v>
       </c>
@@ -15422,7 +15422,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>341</v>
       </c>
@@ -15457,7 +15457,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>341</v>
       </c>
@@ -15492,7 +15492,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>341</v>
       </c>
@@ -15527,7 +15527,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>341</v>
       </c>
@@ -15562,7 +15562,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>341</v>
       </c>
@@ -15597,7 +15597,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>341</v>
       </c>
@@ -15632,7 +15632,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>341</v>
       </c>
@@ -15667,7 +15667,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>341</v>
       </c>
@@ -15702,7 +15702,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>341</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>341</v>
       </c>
@@ -15772,7 +15772,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>341</v>
       </c>
@@ -15807,7 +15807,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>341</v>
       </c>
@@ -15842,7 +15842,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>341</v>
       </c>
@@ -15877,7 +15877,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>341</v>
       </c>
@@ -15912,7 +15912,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>341</v>
       </c>
@@ -15947,7 +15947,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>341</v>
       </c>
@@ -15982,7 +15982,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>341</v>
       </c>
@@ -16017,7 +16017,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>341</v>
       </c>
@@ -16052,7 +16052,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>341</v>
       </c>
@@ -16087,7 +16087,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>341</v>
       </c>
@@ -16122,7 +16122,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>341</v>
       </c>
@@ -16157,7 +16157,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>341</v>
       </c>
@@ -16192,7 +16192,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>341</v>
       </c>
@@ -16227,7 +16227,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>341</v>
       </c>
@@ -16262,7 +16262,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>341</v>
       </c>
@@ -16297,7 +16297,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>341</v>
       </c>
@@ -16332,7 +16332,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>341</v>
       </c>
@@ -16367,7 +16367,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>341</v>
       </c>
@@ -16402,7 +16402,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>341</v>
       </c>
@@ -16437,7 +16437,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>341</v>
       </c>
@@ -16472,7 +16472,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>341</v>
       </c>
@@ -16507,7 +16507,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>341</v>
       </c>
@@ -16542,7 +16542,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>341</v>
       </c>
@@ -16577,7 +16577,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>341</v>
       </c>
@@ -16612,7 +16612,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>341</v>
       </c>
@@ -16647,7 +16647,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>341</v>
       </c>
@@ -16682,7 +16682,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>341</v>
       </c>
@@ -16717,7 +16717,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>341</v>
       </c>
@@ -16752,7 +16752,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>341</v>
       </c>
@@ -16787,7 +16787,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>341</v>
       </c>
@@ -16822,7 +16822,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>341</v>
       </c>
@@ -16857,7 +16857,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>392</v>
       </c>
@@ -16894,7 +16894,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>392</v>
       </c>
@@ -16931,7 +16931,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>392</v>
       </c>
@@ -16966,7 +16966,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>392</v>
       </c>
@@ -17001,7 +17001,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>392</v>
       </c>
@@ -17036,7 +17036,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>392</v>
       </c>
@@ -17071,7 +17071,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>392</v>
       </c>
@@ -17108,7 +17108,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>392</v>
       </c>
@@ -17145,7 +17145,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>392</v>
       </c>
@@ -17180,7 +17180,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>392</v>
       </c>
@@ -17217,7 +17217,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>392</v>
       </c>
@@ -17252,7 +17252,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>392</v>
       </c>
@@ -17287,7 +17287,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>392</v>
       </c>
@@ -17324,7 +17324,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>392</v>
       </c>
@@ -17361,7 +17361,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>392</v>
       </c>
@@ -17396,7 +17396,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>392</v>
       </c>
@@ -17431,7 +17431,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>392</v>
       </c>
@@ -17468,7 +17468,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>392</v>
       </c>
@@ -17505,7 +17505,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>392</v>
       </c>
@@ -17540,7 +17540,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>392</v>
       </c>
@@ -17577,7 +17577,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>392</v>
       </c>
@@ -17612,7 +17612,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>392</v>
       </c>
@@ -17647,7 +17647,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>392</v>
       </c>
@@ -17682,7 +17682,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>392</v>
       </c>
@@ -17717,7 +17717,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>392</v>
       </c>
@@ -17752,7 +17752,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>392</v>
       </c>
@@ -17787,7 +17787,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>392</v>
       </c>
@@ -17824,7 +17824,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>392</v>
       </c>
@@ -17861,7 +17861,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>392</v>
       </c>
@@ -17898,7 +17898,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>392</v>
       </c>
@@ -17935,7 +17935,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>392</v>
       </c>
@@ -17972,7 +17972,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>392</v>
       </c>
@@ -18007,7 +18007,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>392</v>
       </c>
@@ -18044,7 +18044,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>424</v>
       </c>
@@ -18079,7 +18079,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>424</v>
       </c>
@@ -18254,7 +18254,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>424</v>
       </c>
@@ -18849,7 +18849,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>424</v>
       </c>
@@ -19059,7 +19059,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>424</v>
       </c>
@@ -19409,7 +19409,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>169</v>
       </c>
@@ -19444,7 +19444,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>169</v>
       </c>
@@ -19479,7 +19479,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>169</v>
       </c>
@@ -19514,7 +19514,7 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>169</v>
       </c>
@@ -19549,7 +19549,7 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
     </row>
-    <row r="480" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>169</v>
       </c>
@@ -19584,7 +19584,7 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
     </row>
-    <row r="481" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>169</v>
       </c>
@@ -19619,7 +19619,7 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
     </row>
-    <row r="482" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>169</v>
       </c>
@@ -19654,7 +19654,7 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
     </row>
-    <row r="483" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>169</v>
       </c>
@@ -19689,7 +19689,7 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
     </row>
-    <row r="484" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>169</v>
       </c>
@@ -19724,7 +19724,7 @@
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
     </row>
-    <row r="485" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>169</v>
       </c>
@@ -19759,7 +19759,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
     </row>
-    <row r="486" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>169</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
     </row>
-    <row r="487" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>169</v>
       </c>
@@ -19829,7 +19829,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
     </row>
-    <row r="488" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>169</v>
       </c>
@@ -19864,7 +19864,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
     </row>
-    <row r="489" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>169</v>
       </c>
@@ -19899,7 +19899,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
     </row>
-    <row r="490" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>169</v>
       </c>
@@ -19934,7 +19934,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
     </row>
-    <row r="491" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>169</v>
       </c>
@@ -19969,7 +19969,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
     </row>
-    <row r="492" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>169</v>
       </c>
@@ -20004,7 +20004,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
     </row>
-    <row r="493" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>169</v>
       </c>
@@ -20039,7 +20039,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
     </row>
-    <row r="494" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>169</v>
       </c>
@@ -20074,7 +20074,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
     </row>
-    <row r="495" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>169</v>
       </c>
@@ -20109,7 +20109,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
     </row>
-    <row r="496" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>169</v>
       </c>
@@ -20144,7 +20144,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
     </row>
-    <row r="497" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>169</v>
       </c>
@@ -20179,7 +20179,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
     </row>
-    <row r="498" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>169</v>
       </c>
@@ -20214,7 +20214,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
     </row>
-    <row r="499" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>169</v>
       </c>
@@ -20249,7 +20249,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
     </row>
-    <row r="500" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>169</v>
       </c>
@@ -20284,7 +20284,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
     </row>
-    <row r="501" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>169</v>
       </c>
@@ -20319,7 +20319,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
     </row>
-    <row r="502" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>169</v>
       </c>
@@ -20354,7 +20354,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
     </row>
-    <row r="503" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>169</v>
       </c>
@@ -20389,7 +20389,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
     </row>
-    <row r="504" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>169</v>
       </c>
@@ -20424,7 +20424,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
     </row>
-    <row r="505" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>169</v>
       </c>
@@ -20459,7 +20459,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
     </row>
-    <row r="506" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>169</v>
       </c>
@@ -20494,7 +20494,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
     </row>
-    <row r="507" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>169</v>
       </c>
@@ -20529,7 +20529,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
     </row>
-    <row r="508" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>169</v>
       </c>
@@ -20564,7 +20564,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
     </row>
-    <row r="509" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>169</v>
       </c>
@@ -20599,7 +20599,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
     </row>
-    <row r="510" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>169</v>
       </c>
@@ -20634,7 +20634,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
     </row>
-    <row r="511" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>169</v>
       </c>
@@ -20669,7 +20669,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
     </row>
-    <row r="512" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>169</v>
       </c>
@@ -20704,7 +20704,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
     </row>
-    <row r="513" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>169</v>
       </c>
@@ -20739,7 +20739,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
     </row>
-    <row r="514" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>169</v>
       </c>
@@ -20774,7 +20774,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
     </row>
-    <row r="515" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>169</v>
       </c>
@@ -20809,7 +20809,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
     </row>
-    <row r="516" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>169</v>
       </c>
@@ -20844,7 +20844,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
     </row>
-    <row r="517" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>169</v>
       </c>
@@ -20879,7 +20879,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
     </row>
-    <row r="518" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>169</v>
       </c>
@@ -20914,7 +20914,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
     </row>
-    <row r="519" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>169</v>
       </c>
@@ -20949,7 +20949,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
     </row>
-    <row r="520" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>169</v>
       </c>
@@ -20984,7 +20984,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
     </row>
-    <row r="521" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>169</v>
       </c>
@@ -21019,7 +21019,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
     </row>
-    <row r="522" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>169</v>
       </c>
@@ -21054,7 +21054,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
     </row>
-    <row r="523" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>169</v>
       </c>
@@ -21089,7 +21089,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
     </row>
-    <row r="524" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>169</v>
       </c>
@@ -21124,7 +21124,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
     </row>
-    <row r="525" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>169</v>
       </c>
@@ -21159,7 +21159,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
     </row>
-    <row r="526" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>169</v>
       </c>
@@ -21194,7 +21194,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
     </row>
-    <row r="527" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>169</v>
       </c>
@@ -21229,7 +21229,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
     </row>
-    <row r="528" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>169</v>
       </c>
@@ -21264,7 +21264,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
     </row>
-    <row r="529" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>169</v>
       </c>
@@ -21299,7 +21299,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
     </row>
-    <row r="530" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>169</v>
       </c>
@@ -21334,7 +21334,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
     </row>
-    <row r="531" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>515</v>
       </c>
@@ -21369,7 +21369,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
     </row>
-    <row r="532" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>515</v>
       </c>
@@ -21404,7 +21404,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
     </row>
-    <row r="533" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>515</v>
       </c>
@@ -21509,7 +21509,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
     </row>
-    <row r="536" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>521</v>
       </c>
@@ -21544,7 +21544,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
     </row>
-    <row r="537" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>521</v>
       </c>
@@ -21579,7 +21579,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
     </row>
-    <row r="538" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>521</v>
       </c>
@@ -21614,7 +21614,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
     </row>
-    <row r="539" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>521</v>
       </c>
@@ -21649,7 +21649,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
     </row>
-    <row r="540" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>521</v>
       </c>
@@ -21684,7 +21684,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
     </row>
-    <row r="541" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>525</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>525</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>525</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:27" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>525</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>525</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>525</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>525</v>
       </c>
@@ -21789,7 +21789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>525</v>
       </c>
@@ -21804,7 +21804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>525</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>525</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>525</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>525</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>525</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>525</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>525</v>
       </c>
@@ -21909,7 +21909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>525</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>525</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>525</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>525</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>525</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>525</v>
       </c>
@@ -21999,7 +21999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>525</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>525</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>525</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>525</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>525</v>
       </c>
@@ -22074,7 +22074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>525</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>525</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>525</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>525</v>
       </c>
@@ -22134,7 +22134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>525</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>525</v>
       </c>
@@ -22164,7 +22164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>525</v>
       </c>
@@ -22179,7 +22179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>525</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>525</v>
       </c>
@@ -22209,7 +22209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>525</v>
       </c>
@@ -22224,7 +22224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>525</v>
       </c>
@@ -22239,7 +22239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>525</v>
       </c>
@@ -22254,7 +22254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>525</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>525</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>525</v>
       </c>
@@ -22299,7 +22299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>525</v>
       </c>
@@ -22314,7 +22314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>525</v>
       </c>
@@ -22329,7 +22329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>525</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>525</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>525</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>525</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>525</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>525</v>
       </c>
@@ -22419,7 +22419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>525</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>525</v>
       </c>
@@ -22449,7 +22449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>525</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>525</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>525</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>525</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>525</v>
       </c>
@@ -22524,7 +22524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>525</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>525</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>525</v>
       </c>
@@ -22569,7 +22569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>525</v>
       </c>
@@ -22584,7 +22584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>525</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>525</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>525</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>525</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>525</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>525</v>
       </c>
@@ -22674,7 +22674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>525</v>
       </c>
@@ -22689,7 +22689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>525</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>525</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>525</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>525</v>
       </c>
@@ -22749,7 +22749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>525</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>525</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>525</v>
       </c>
@@ -22794,7 +22794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>525</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>525</v>
       </c>
@@ -22824,7 +22824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>525</v>
       </c>
@@ -22839,7 +22839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>525</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>525</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>525</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>525</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>525</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>525</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>525</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>525</v>
       </c>
@@ -22959,7 +22959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>525</v>
       </c>
@@ -22974,7 +22974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>525</v>
       </c>
@@ -22989,7 +22989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>525</v>
       </c>
@@ -23004,7 +23004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>525</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>525</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>525</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>525</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>525</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>525</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>525</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>525</v>
       </c>
@@ -23124,7 +23124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>525</v>
       </c>
@@ -23139,7 +23139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>525</v>
       </c>
@@ -23154,7 +23154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>525</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>525</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>525</v>
       </c>
@@ -23199,7 +23199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>525</v>
       </c>
@@ -23214,7 +23214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>525</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>525</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>525</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>525</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>525</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>525</v>
       </c>
@@ -23304,7 +23304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>525</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>525</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>525</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>525</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>525</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>525</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>525</v>
       </c>
@@ -23420,7 +23420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>525</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>525</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>525</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>525</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>525</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>525</v>
       </c>
@@ -23510,7 +23510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>525</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>525</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>525</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>525</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>525</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>525</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>525</v>
       </c>
@@ -23615,7 +23615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>525</v>
       </c>
@@ -23630,7 +23630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>525</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>525</v>
       </c>
@@ -23660,7 +23660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>525</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>525</v>
       </c>
@@ -23690,7 +23690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>525</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>525</v>
       </c>
@@ -23720,7 +23720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>525</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>525</v>
       </c>
@@ -23750,7 +23750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>525</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>525</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>525</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>525</v>
       </c>
@@ -23810,7 +23810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>525</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>525</v>
       </c>
@@ -23840,7 +23840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>525</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>525</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>525</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>525</v>
       </c>
@@ -23900,7 +23900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>525</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>525</v>
       </c>
@@ -23930,7 +23930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>525</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>525</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>525</v>
       </c>
@@ -23975,7 +23975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>525</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>525</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>525</v>
       </c>
@@ -24020,7 +24020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>525</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>525</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>525</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>525</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>525</v>
       </c>
@@ -24095,7 +24095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>525</v>
       </c>
@@ -24110,7 +24110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>525</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>525</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>525</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>525</v>
       </c>
@@ -24170,7 +24170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>525</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>525</v>
       </c>
@@ -24200,7 +24200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>525</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>525</v>
       </c>
@@ -24230,7 +24230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>525</v>
       </c>
@@ -24245,7 +24245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>525</v>
       </c>
@@ -24260,7 +24260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>525</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>525</v>
       </c>
@@ -24290,7 +24290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>525</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>525</v>
       </c>
@@ -24320,7 +24320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>525</v>
       </c>
@@ -24351,11 +24351,6 @@
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
